--- a/playlist_per_work/bred001rodd02.xlsx
+++ b/playlist_per_work/bred001rodd02.xlsx
@@ -483,19 +483,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#kamenier</t>
+          <t>#griet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kamenier</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>griet</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -509,19 +505,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#pagie</t>
+          <t>#alph</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pagie</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Alph</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -535,19 +527,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#nieu.-h</t>
+          <t>#elys</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nieu. H</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Elys</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -561,19 +549,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#coningh</t>
+          <t>#rod</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Coningh</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rod</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -587,19 +571,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#elisabet</t>
+          <t>#koning</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Elisabet</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Koning</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -613,19 +593,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#griet-s</t>
+          <t>#almijn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Griet S</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Almijn</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -639,19 +615,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#oronda</t>
+          <t>#elisabet</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Oronda</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Elisabet</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -665,19 +637,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#rodde</t>
+          <t>#nieu.-h</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rodde</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Nieu. H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -691,19 +659,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#rodrick,</t>
+          <t>#roderick</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rodrick,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Roderick</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -717,19 +681,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#alphon</t>
+          <t>#oronda</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Alphon</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Oronda</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -743,19 +703,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#alphonsus</t>
+          <t>#nieu.-hae</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alphonsus</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Nieu. hae</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -769,19 +725,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#alph.-b</t>
+          <t>#griet</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alph. b</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Griet</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -795,19 +747,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#griet</t>
+          <t>#coningh</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>griet</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Coningh</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -821,19 +769,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#rodderick</t>
+          <t>#haalnaa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rodderick</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Haalnaa</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -847,19 +791,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#elysab</t>
+          <t>#alphonsus</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Elysab</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Alphonsus</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -873,19 +813,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#almijn</t>
+          <t>#elisab</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Almijn</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Elisab</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -899,19 +835,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#gerald</t>
+          <t>#alphon</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gerald</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Alphon</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -925,19 +857,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#nieu.-hae</t>
+          <t>#alph.-b</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nieu. hae</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Alph. b</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -951,19 +879,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#haalnaa</t>
+          <t>#griet-s</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Haalnaa</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Griet S</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -977,12 +901,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#rodderick</t>
+          <t>#gerald</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Roderick</t>
+          <t>Gerald</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -999,12 +923,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#rodderick</t>
+          <t>#geerald</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Roderic</t>
+          <t>Geerald</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1021,12 +945,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#griet</t>
+          <t>#elisabeth</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Griet</t>
+          <t>Elisabeth</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1043,12 +967,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#rodrick,</t>
+          <t>#elysabet</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rodrick</t>
+          <t>Elysabet</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1065,12 +989,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#coningh</t>
+          <t>#elijsab</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Koning</t>
+          <t>Elijsab</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1087,7 +1011,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#coningh</t>
+          <t>#koningh</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1109,12 +1033,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#haalnaa</t>
+          <t>#rodrick</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Haalna</t>
+          <t>Rodrick</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1131,12 +1055,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#alphonsus</t>
+          <t>#bode</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Alphonse</t>
+          <t>Bode</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1153,12 +1077,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#nieu.-h</t>
+          <t>#elysab</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nieuw. H</t>
+          <t>Elysab</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1175,12 +1099,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#alphon</t>
+          <t>#alphons</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Alph</t>
+          <t>Alphons</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1197,12 +1121,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#gerald</t>
+          <t>#roderic</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Geerald</t>
+          <t>Roderic</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1219,12 +1143,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#gerald</t>
+          <t>#elysa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gerald</t>
+          <t>Elysa</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1241,12 +1165,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#nieu.-h</t>
+          <t>#rodrick,</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nieu. ha</t>
+          <t>Rodrick,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1263,12 +1187,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#elisabet</t>
+          <t>#orond</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Elisab</t>
+          <t>Orond</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1285,12 +1209,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#elysab</t>
+          <t>#pagie</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Elysa</t>
+          <t>Pagie</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1307,12 +1231,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#rodde</t>
+          <t>#kamenier</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bode</t>
+          <t>Kamenier</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1329,12 +1253,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#elisabet</t>
+          <t>#gerald</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Elisabeth</t>
+          <t>gerald</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1351,12 +1275,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#oronda</t>
+          <t>#nieu.-ha</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Orond</t>
+          <t>Nieu. ha</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1373,12 +1297,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#alphon</t>
+          <t>#elijsabet</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Alphons</t>
+          <t>Elijsabet</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1395,12 +1319,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#elisabet</t>
+          <t>#rodd</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Elysabet</t>
+          <t>Rodd</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1417,12 +1341,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#elysab</t>
+          <t>#gerald,</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Elijsab</t>
+          <t>Gerald,</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1444,7 +1368,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rod</t>
+          <t>Rodde</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1461,12 +1385,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#rodde</t>
+          <t>#haalna</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rodd</t>
+          <t>Haalna</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1483,12 +1407,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#elysab</t>
+          <t>#nieuw.-h</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Elys</t>
+          <t>Nieuw. H</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1505,12 +1429,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#elisabet</t>
+          <t>#alphonse</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Elijsabet</t>
+          <t>Alphonse</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1527,12 +1451,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#gerald</t>
+          <t>#rodderick</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gerald,</t>
+          <t>Rodderick</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>

--- a/playlist_per_work/bred001rodd02.xlsx
+++ b/playlist_per_work/bred001rodd02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>speaker_variant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_prefered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_new</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>is_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gender (Male/Female/Unknown/Other)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -483,19 +488,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#griet</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>griet</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>#roderic</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Roderic</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,19 +511,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#alph</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Alph</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>#elijsab</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Elijsab</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +534,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#elys</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Elys</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>#alphonsus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alphonsus</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,19 +557,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#rod</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Rod</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>#nieu.-hae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Nieu. hae</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -571,19 +580,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#koning</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Koning</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>#elysa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Elysa</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,19 +603,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#almijn</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Almijn</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>#orond</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Orond</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -615,19 +626,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#elisabet</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Elisabet</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>#elys</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Elys</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -637,19 +649,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#nieu.-h</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Nieu. H</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>#alphons</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Alphons</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -659,19 +672,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#roderick</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Roderick</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>#alphon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Alphon</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -681,19 +695,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#oronda</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Oronda</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>#elysabet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Elysabet</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,19 +718,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#nieu.-hae</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Nieu. hae</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>#bode</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Bode</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -725,19 +741,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#griet</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Griet</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>#koning</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Koning</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -747,19 +764,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#coningh</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Coningh</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>#haalna</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Haalna</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -769,19 +787,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#haalnaa</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Haalnaa</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>#roderick</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Roderick</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -791,19 +810,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#alphonsus</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Alphonsus</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>#oronda</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Oronda</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -813,19 +833,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#elisab</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Elisab</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>#rodde</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Rodde</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -835,19 +856,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#alphon</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Alphon</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>#rodd</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Rodd</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -857,19 +879,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#alph.-b</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Alph. b</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>#elijsabet</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Elijsabet</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -879,19 +902,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#griet-s</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Griet S</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>#elisabet</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Elisabet</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -904,16 +928,17 @@
           <t>#gerald</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Gerald</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -923,19 +948,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#geerald</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Geerald</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>#rod</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Rod</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -945,19 +971,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#elisabeth</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Elisabeth</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>#kamenier</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Kamenier</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -967,19 +994,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#elysabet</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Elysabet</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>#haalnaa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Haalnaa</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -989,19 +1017,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#elijsab</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Elijsab</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>#koningh</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Koningh</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1011,19 +1040,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#koningh</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Koningh</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>#rodrick</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Rodrick</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1033,19 +1063,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#rodrick</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Rodrick</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>#elysab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Elysab</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1055,19 +1086,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#bode</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Bode</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>#elisabeth</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Elisabeth</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1077,19 +1109,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#elysab</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Elysab</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>#alph</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Alph</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1099,19 +1132,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#alphons</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Alphons</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>#rodrick,</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Rodrick,</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1121,19 +1155,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#roderic</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Roderic</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>#alph.-b</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Alph. b</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1143,19 +1178,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#elysa</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Elysa</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>#rodderick</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Rodderick</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1165,19 +1201,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#rodrick,</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Rodrick,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>#griet</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Griet</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1187,19 +1224,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#orond</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Orond</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>#nieuw.-h</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nieuw. H</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1209,19 +1247,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#pagie</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Pagie</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>#nieu.-h</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Nieu. H</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1231,19 +1270,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#kamenier</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Kamenier</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>#griet</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>griet</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1253,19 +1293,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#gerald</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>gerald</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>#pagie</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Pagie</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1275,19 +1316,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#nieu.-ha</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Nieu. ha</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>#geerald</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Geerald</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1297,19 +1339,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#elijsabet</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Elijsabet</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>#gerald</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>gerald</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1319,19 +1362,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#rodd</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Rodd</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>#alphonse</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Alphonse</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1341,19 +1385,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#gerald,</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Gerald,</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>#almijn</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Almijn</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1363,19 +1408,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#rodde</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Rodde</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>#griet-s</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Griet S</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1385,19 +1431,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#haalna</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Haalna</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>#coningh</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Coningh</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1407,19 +1454,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#nieuw.-h</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Nieuw. H</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>#elisab</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Elisab</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1429,19 +1477,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#alphonse</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Alphonse</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>#gerald,</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Gerald,</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1451,19 +1500,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#rodderick</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Rodderick</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>#nieu.-ha</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Nieu. ha</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
